--- a/InventoryApp/InventoryApp.View/Resources/SalidaRMA.xlsx
+++ b/InventoryApp/InventoryApp.View/Resources/SalidaRMA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">DIRECCIÓN </t>
   </si>
@@ -60,9 +60,6 @@
     <t>N° DE SERIE</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPRESA: </t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>TÉCNICO QUE RECIBE:</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,14 +889,14 @@
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="T5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -1043,7 +1046,7 @@
     <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1121,7 +1124,7 @@
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1199,7 +1202,7 @@
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1355,7 +1358,7 @@
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1433,7 +1436,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1511,7 +1514,7 @@
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1589,7 +1592,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1739,7 +1742,7 @@
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1813,7 +1816,7 @@
     <row r="31" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2054,26 +2057,28 @@
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
       <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="X37" s="28"/>
       <c r="Y37" s="28"/>
       <c r="Z37" s="29"/>
       <c r="AA37" s="27" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AB37" s="28"/>
       <c r="AC37" s="28"/>
       <c r="AD37" s="29"/>
       <c r="AE37" s="27" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AF37" s="28"/>
       <c r="AG37" s="28"/>
       <c r="AH37" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="C6:V6"/>
     <mergeCell ref="W8:AE8"/>
     <mergeCell ref="F8:N8"/>
@@ -2090,8 +2095,9 @@
     <mergeCell ref="L27:AG27"/>
     <mergeCell ref="L29:AG29"/>
     <mergeCell ref="AE37:AH37"/>
-    <mergeCell ref="D37:Z37"/>
     <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="D37:V37"/>
+    <mergeCell ref="W37:Z37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InventoryApp/InventoryApp.View/Resources/SalidaRMA.xlsx
+++ b/InventoryApp/InventoryApp.View/Resources/SalidaRMA.xlsx
@@ -87,13 +87,13 @@
     <t>Salida RMA</t>
   </si>
   <si>
-    <t>TÉCNICO QUE RECIBE:</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>TÉCNICO RESPONSABLE:</t>
   </si>
 </sst>
 </file>
@@ -430,31 +430,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,6 +450,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,28 +895,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -937,21 +937,21 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="31"/>
+      <c r="W8" s="24"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -1056,7 +1056,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -1134,7 +1134,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1212,7 +1212,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -1290,7 +1290,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -1368,7 +1368,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -1436,7 +1436,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1446,7 +1446,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="24"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
@@ -1524,7 +1524,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -1602,7 +1602,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="24"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -1680,7 +1680,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
@@ -1752,7 +1752,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="24"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -1826,7 +1826,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -2033,62 +2033,52 @@
       <c r="AH36" s="21"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="27" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="27" t="s">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="27" t="s">
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="29"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="W8:AE8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="L11:AG11"/>
-    <mergeCell ref="L13:AG13"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L17:AG17"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="L23:AG23"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="L25:AG25"/>
     <mergeCell ref="L31:AG31"/>
@@ -2098,6 +2088,16 @@
     <mergeCell ref="AA37:AD37"/>
     <mergeCell ref="D37:V37"/>
     <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L17:AG17"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L23:AG23"/>
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="W8:AE8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="L11:AG11"/>
+    <mergeCell ref="L13:AG13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InventoryApp/InventoryApp.View/Resources/SalidaRMA.xlsx
+++ b/InventoryApp/InventoryApp.View/Resources/SalidaRMA.xlsx
@@ -72,9 +72,6 @@
     <t>DESTINO:</t>
   </si>
   <si>
-    <t>TRANSPORTE:</t>
-  </si>
-  <si>
     <t>CONTACTO:</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>TÉCNICO RESPONSABLE:</t>
+  </si>
+  <si>
+    <t>MEDIO DE ENVÍO:</t>
   </si>
 </sst>
 </file>
@@ -430,16 +430,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,21 +465,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,28 +895,28 @@
     </row>
     <row r="6" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="C6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -937,21 +937,21 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="24"/>
+      <c r="W8" s="31"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -1056,7 +1056,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="30"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -1134,7 +1134,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="30"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1212,7 +1212,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="30"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -1290,7 +1290,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="30"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -1368,7 +1368,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="30"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -1436,7 +1436,7 @@
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1446,7 +1446,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="30"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
@@ -1514,7 +1514,7 @@
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="16"/>
       <c r="C23" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1524,7 +1524,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -1592,7 +1592,7 @@
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="16"/>
       <c r="C25" s="12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1602,7 +1602,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -1670,7 +1670,7 @@
     <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1680,7 +1680,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="30"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
@@ -1742,7 +1742,7 @@
     <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1752,7 +1752,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="30"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
@@ -1826,7 +1826,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="30"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
@@ -2033,52 +2033,62 @@
       <c r="AH36" s="21"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="32" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="32" t="s">
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="33"/>
-      <c r="AH37" s="34"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C6:V6"/>
+    <mergeCell ref="W8:AE8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="L11:AG11"/>
+    <mergeCell ref="L13:AG13"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="L17:AG17"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="L23:AG23"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="L25:AG25"/>
     <mergeCell ref="L31:AG31"/>
@@ -2088,16 +2098,6 @@
     <mergeCell ref="AA37:AD37"/>
     <mergeCell ref="D37:V37"/>
     <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="L17:AG17"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="L23:AG23"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="W8:AE8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="L11:AG11"/>
-    <mergeCell ref="L13:AG13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
